--- a/Resultados/Material + Estrutura/ResNet/Tentativa 1/Do Zero.xlsx
+++ b/Resultados/Material + Estrutura/ResNet/Tentativa 1/Do Zero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Estrutura\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA08CC10-CDA8-4609-B4A2-FB5122267AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04CAFB0-F77A-4267-A5DE-C4D87A43A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -625,6 +625,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -633,9 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,6 +643,96 @@
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -737,96 +827,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1317,23 +1317,23 @@
   <autoFilter ref="A1:J7" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!K3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1661,8 +1661,8 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2526,7 +2526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2535,7 +2535,7 @@
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
@@ -2573,12 +2573,12 @@
       <c r="K1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
@@ -3282,7 +3282,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="22">
@@ -3306,7 +3306,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="18">
         <v>1</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="18">
         <v>0</v>
       </c>
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="18">
         <v>0</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="18">
         <v>0</v>
       </c>
@@ -3406,7 +3406,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="18">
         <v>15</v>
       </c>
@@ -3581,13 +3581,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A37:A42"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A37:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3598,27 +3598,27 @@
   <sheetPr codeName="Folha7"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I11" sqref="I11"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="39">
         <v>5</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>0</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="G14">
         <f>SUM(G8:G13)+B10</f>
